--- a/tests/testthat/test_data/12/badColName.xlsx
+++ b/tests/testthat/test_data/12/badColName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4290b48d2b34c4/Documents/testing_tidyplate/test_data/12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78CDC61-114E-4199-8B63-342EE40C0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{380C4F01-43E1-564F-AA24-7E4869744A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="badColName" sheetId="1" r:id="rId1"/>
@@ -28,46 +28,46 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
   </si>
   <si>
     <t>partial</t>
@@ -82,14 +82,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,28 +127,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,14 +164,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,14 +179,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -194,7 +194,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -202,14 +202,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -918,9 +918,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -988,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1051,6 +1051,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>